--- a/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 6,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 7,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 9,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 9,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 9,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 12,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 6,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 6,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,15; 10,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>263,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>239,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>529,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>409,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>420,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>877,02%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,74; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,82; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,55; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,89; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,64; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>131,1; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,01; 10,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 13,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 2,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 5,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,9; 10,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>385,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>443,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>647,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>265,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>531,81%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,02; 212,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,64; 284,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>142,53; 1005,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,6; 528,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>177,29; 1035,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>295,57; 1408,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,81; 258,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>116,08; 505,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>294,37; 934,72</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 2,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 3,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 6,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,42; 8,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 3,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,3%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,37; 59,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; 227,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,28; 323,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,82; 268,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,56; 179,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,11; 345,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,79; 153,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,02; 137,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,64; 264,26</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 2,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 5,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 2,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 4,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 5,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 2,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 4,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,94; 217,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,03; 191,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,6; 407,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,48; 49,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,91; 93,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 127,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,75; 60,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; 83,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,65; 152,57</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 5,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 2,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 5,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 8,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 3,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 6,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,51%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,5; 70,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 72,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,7; 220,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,2; 55,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,7; 115,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,21; 167,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,17; 47,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,56; 90,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,15; 180,51</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 1,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 4,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 3,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 4,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 7,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 1,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 2,81</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 5,67</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,7%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,25; 45,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 85,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,8; 247,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,14; 85,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,66; 120,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>107,04; 206,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,58; 64,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,86; 100,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>118,6; 203,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>8,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,17</t>
+          <t>-0,69; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,72</t>
+          <t>-0,18; 2,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,36</t>
+          <t>3,38; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,72</t>
+          <t>1,52; 5,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 9,74</t>
+          <t>4,54; 9,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,64</t>
+          <t>8,27; 12,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,1</t>
+          <t>0,75; 3,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 6,64</t>
+          <t>2,76; 5,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,27</t>
+          <t>6,73; 9,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>434,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>263,45%</t>
+          <t>192,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>239,46%</t>
+          <t>412,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>529,78%</t>
+          <t>630,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>409,22%</t>
+          <t>129,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>420,64%</t>
+          <t>278,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>877,02%</t>
+          <t>553,27%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,59; 259,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,37; 376,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>139,58; 1000,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,74; —</t>
+          <t>55,65; 489,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,82; —</t>
+          <t>189,27; 879,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,55; —</t>
+          <t>313,62; 1295,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,89; —</t>
+          <t>37,02; 297,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,64; —</t>
+          <t>134,15; 514,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>131,1; —</t>
+          <t>324,87; 932,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>3,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,73</t>
+          <t>-1,73; 0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,51</t>
+          <t>-0,37; 2,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,27</t>
+          <t>-0,88; 2,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,2</t>
+          <t>2,18; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,32</t>
+          <t>0,55; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,19</t>
+          <t>4,44; 8,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,97</t>
+          <t>0,82; 3,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,86</t>
+          <t>0,48; 2,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 10,11</t>
+          <t>1,3; 4,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>-35,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>385,02%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>179,9%</t>
+          <t>131,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>443,92%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>647,95%</t>
+          <t>187,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>103,17%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>265,89%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>531,81%</t>
+          <t>136,6%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 212,12</t>
+          <t>-72,37; 59,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,64; 284,02</t>
+          <t>-20,93; 227,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142,53; 1005,02</t>
+          <t>-27,57; 242,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,6; 528,65</t>
+          <t>48,82; 268,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>177,29; 1035,94</t>
+          <t>11,56; 179,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>295,57; 1408,12</t>
+          <t>96,5; 347,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 258,28</t>
+          <t>26,79; 153,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>116,08; 505,67</t>
+          <t>14,02; 137,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>294,37; 934,72</t>
+          <t>51,89; 233,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,54</t>
+          <t>-1,03; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,36</t>
+          <t>-1,02; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,52</t>
+          <t>1,07; 4,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,46</t>
+          <t>-2,58; 2,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,26</t>
+          <t>-1,13; 4,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,28</t>
+          <t>-2,56; 4,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,09</t>
+          <t>-1,17; 1,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,84</t>
+          <t>-0,58; 2,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,31</t>
+          <t>-0,1; 4,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,92%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119,94%</t>
+          <t>155,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>131,98%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>186,79%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,13%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>165,3%</t>
+          <t>65,21%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,37; 59,72</t>
+          <t>-44,94; 217,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 227,16</t>
+          <t>-42,03; 191,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,28; 323,4</t>
+          <t>23,67; 388,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,82; 268,03</t>
+          <t>-39,48; 49,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 179,93</t>
+          <t>-20,91; 93,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,11; 345,89</t>
+          <t>-36,58; 98,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 153,79</t>
+          <t>-27,75; 60,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 137,17</t>
+          <t>-13,47; 83,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,64; 264,26</t>
+          <t>1,52; 128,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>4,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,56</t>
+          <t>-1,4; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,11</t>
+          <t>-1,24; 1,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,09</t>
+          <t>1,51; 5,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,07</t>
+          <t>-1,4; 2,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,13</t>
+          <t>0,7; 5,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,58</t>
+          <t>2,54; 7,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,76</t>
+          <t>-1,01; 1,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,52</t>
+          <t>0,39; 3,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,65</t>
+          <t>2,83; 6,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>165,06%</t>
+          <t>108,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,83%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>98,93%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 217,49</t>
+          <t>-39,5; 70,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 191,39</t>
+          <t>-35,74; 72,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,6; 407,08</t>
+          <t>37,07; 224,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 49,14</t>
+          <t>-21,2; 55,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 93,07</t>
+          <t>9,7; 115,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 127,73</t>
+          <t>39,14; 160,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 60,71</t>
+          <t>-19,17; 47,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 83,19</t>
+          <t>7,56; 90,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,65; 152,57</t>
+          <t>55,28; 161,09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,64</t>
+          <t>-0,73; 0,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,67</t>
+          <t>-0,05; 1,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,13</t>
+          <t>1,59; 3,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,65</t>
+          <t>1,04; 3,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,69</t>
+          <t>2,31; 4,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,39</t>
+          <t>3,75; 7,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,78</t>
+          <t>0,48; 1,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,4</t>
+          <t>1,38; 2,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,59</t>
+          <t>3,22; 5,15</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>107,81%</t>
+          <t>144,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>106,79%</t>
+          <t>136,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>109,51%</t>
+          <t>140,04%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 70,27</t>
+          <t>-31,25; 45,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 72,35</t>
+          <t>-2,85; 85,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,7; 220,29</t>
+          <t>70,26; 226,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 55,05</t>
+          <t>21,14; 85,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,7; 115,52</t>
+          <t>49,66; 120,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>50,21; 167,59</t>
+          <t>87,58; 190,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 47,18</t>
+          <t>13,58; 64,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,56; 90,79</t>
+          <t>40,86; 100,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>67,15; 180,51</t>
+          <t>98,22; 185,91</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 0,76</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 1,4</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 4,11</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,18</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 4,43</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 7,54</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 1,82</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 2,81</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 5,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>33,81%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>164,09%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>51,08%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>80,6%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>150,95%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>66,3%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>158,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; 45,28</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 85,92</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>97,8; 247,89</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>21,14; 85,54</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>49,66; 120,93</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>107,04; 206,83</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>13,58; 64,33</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>40,86; 100,99</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>118,6; 203,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,78</t>
+          <t>-0,65; 1,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,7</t>
+          <t>-0,23; 2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,38</t>
+          <t>3,64; 7,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,33</t>
+          <t>1,59; 5,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 9,4</t>
+          <t>4,53; 9,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,54</t>
+          <t>8,55; 12,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,03</t>
+          <t>0,75; 3,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,6</t>
+          <t>2,78; 5,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,66</t>
+          <t>6,68; 9,61</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 259,33</t>
+          <t>-46,57; 270,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 376,93</t>
+          <t>-17,51; 373,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>139,58; 1000,24</t>
+          <t>173,35; 1127,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,65; 489,2</t>
+          <t>62,74; 482,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>189,27; 879,99</t>
+          <t>175,86; 846,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>313,62; 1295,69</t>
+          <t>316,38; 1292,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,02; 297,16</t>
+          <t>36,69; 317,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>134,15; 514,33</t>
+          <t>139,85; 553,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>324,87; 932,99</t>
+          <t>331,26; 957,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,54</t>
+          <t>-1,73; 0,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,36</t>
+          <t>-0,56; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,8</t>
+          <t>-0,4; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,46</t>
+          <t>2,36; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,26</t>
+          <t>0,57; 4,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,3</t>
+          <t>4,26; 7,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,09</t>
+          <t>0,71; 3,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,84</t>
+          <t>0,44; 2,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,71</t>
+          <t>1,44; 4,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,37; 59,72</t>
+          <t>-73,12; 51,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 227,16</t>
+          <t>-25,56; 217,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 242,05</t>
+          <t>-15,5; 252,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,82; 268,03</t>
+          <t>50,86; 263,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,56; 179,93</t>
+          <t>11,83; 189,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,5; 347,54</t>
+          <t>96,1; 342,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 153,79</t>
+          <t>22,08; 149,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 137,17</t>
+          <t>14,62; 134,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,89; 233,09</t>
+          <t>50,61; 229,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,56</t>
+          <t>-1,07; 2,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,11</t>
+          <t>-1,03; 2,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,9</t>
+          <t>1,14; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,07</t>
+          <t>-2,49; 2,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,13</t>
+          <t>-1,14; 3,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 4,57</t>
+          <t>-2,79; 4,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,76</t>
+          <t>-1,3; 1,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,52</t>
+          <t>-0,43; 2,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,01</t>
+          <t>0,09; 4,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 217,49</t>
+          <t>-44,89; 211,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 191,39</t>
+          <t>-40,52; 208,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,67; 388,47</t>
+          <t>33,01; 434,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 49,14</t>
+          <t>-39,08; 58,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 93,07</t>
+          <t>-18,33; 92,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 98,63</t>
+          <t>-39,01; 93,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 60,71</t>
+          <t>-28,98; 58,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 83,19</t>
+          <t>-10,09; 89,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 128,83</t>
+          <t>4,99; 140,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,64</t>
+          <t>-1,52; 1,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,67</t>
+          <t>-1,28; 1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,34</t>
+          <t>1,47; 5,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,65</t>
+          <t>-1,42; 2,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,69</t>
+          <t>0,88; 5,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,5</t>
+          <t>2,55; 7,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,78</t>
+          <t>-0,93; 1,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,4</t>
+          <t>0,33; 3,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,01</t>
+          <t>2,97; 6,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 70,27</t>
+          <t>-43,92; 82,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 72,35</t>
+          <t>-34,88; 78,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,07; 224,47</t>
+          <t>35,2; 221,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 55,05</t>
+          <t>-20,9; 57,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,7; 115,52</t>
+          <t>12,4; 124,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,14; 160,59</t>
+          <t>37,65; 164,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 47,18</t>
+          <t>-19,4; 46,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,56; 90,79</t>
+          <t>6,23; 91,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>55,28; 161,09</t>
+          <t>54,92; 158,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,76</t>
+          <t>-0,62; 0,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,4</t>
+          <t>-0,02; 1,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,79</t>
+          <t>1,68; 3,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,18</t>
+          <t>1,11; 3,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,43</t>
+          <t>2,12; 4,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,07</t>
+          <t>3,98; 7,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,82</t>
+          <t>0,46; 1,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,81</t>
+          <t>1,36; 2,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,15</t>
+          <t>3,23; 5,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 45,28</t>
+          <t>-27,38; 44,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 85,92</t>
+          <t>-0,84; 86,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>70,26; 226,16</t>
+          <t>79,08; 229,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,14; 85,54</t>
+          <t>23,92; 85,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>49,66; 120,93</t>
+          <t>45,74; 117,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,58; 190,86</t>
+          <t>89,77; 192,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,58; 64,33</t>
+          <t>13,93; 65,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>40,86; 100,99</t>
+          <t>40,08; 100,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>98,22; 185,91</t>
+          <t>99,65; 185,41</t>
         </is>
       </c>
     </row>
